--- a/Project Outputs for Apogee Detection/4500-WB_AV_MainPCB-REVA-BOM.xlsx
+++ b/Project Outputs for Apogee Detection/4500-WB_AV_MainPCB-REVA-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo Fernandez\Documents\UBC Rocket\WB\WB-HW\4500-WB_AV_MainPCB\WB-AV-4500-FC\Project Outputs for Apogee Detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B8D5E4F-8D71-4CA2-94DA-19170163328F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEA65A4-73E3-4E37-8591-95C3B42D60F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{F9C57AFE-70E1-46DC-AD4B-9A755712E21E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9C57AFE-70E1-46DC-AD4B-9A755712E21E}"/>
   </bookViews>
   <sheets>
     <sheet name="4500-WB_AV_MainPCB-REVA-BOM" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="448">
   <si>
     <t>Comment</t>
   </si>
@@ -1374,6 +1374,12 @@
   </si>
   <si>
     <t>25AC5625</t>
+  </si>
+  <si>
+    <t>Ordered</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1426,11 +1432,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1440,6 +1457,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1759,9 +1779,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1769,7 +1791,7 @@
     <col min="9" max="14" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1812,8 +1834,11 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+      <c r="O1" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1851,7 +1876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -1887,7 +1912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
@@ -1923,7 +1948,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="195" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="195" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
@@ -1959,7 +1984,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
@@ -1995,7 +2020,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
@@ -2031,7 +2056,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>55</v>
       </c>
@@ -2067,7 +2092,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>61</v>
       </c>
@@ -2103,7 +2128,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -2139,7 +2164,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>73</v>
       </c>
@@ -2175,7 +2200,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>79</v>
       </c>
@@ -2213,7 +2238,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>87</v>
       </c>
@@ -2251,7 +2276,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>93</v>
       </c>
@@ -2285,7 +2310,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>100</v>
       </c>
@@ -2323,7 +2348,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="195" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="195" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>73</v>
       </c>
@@ -2357,6 +2382,9 @@
       <c r="M16" s="4"/>
       <c r="N16" s="3" t="s">
         <v>112</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="105" x14ac:dyDescent="0.25">
@@ -2923,7 +2951,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>216</v>
       </c>
@@ -2959,7 +2987,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>223</v>
       </c>
@@ -2997,7 +3025,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>229</v>
       </c>
@@ -3025,7 +3053,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>233</v>
       </c>
@@ -3060,8 +3088,11 @@
       <c r="N36" s="3" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="O36" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>198</v>
       </c>
@@ -3096,8 +3127,11 @@
       <c r="N37" s="3" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="O37" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>245</v>
       </c>
@@ -3127,7 +3161,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>249</v>
       </c>
@@ -3155,7 +3189,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>253</v>
       </c>
@@ -3193,7 +3227,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>261</v>
       </c>
@@ -3229,7 +3263,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>267</v>
       </c>
@@ -3257,7 +3291,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>271</v>
       </c>
@@ -3295,7 +3329,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>271</v>
       </c>
@@ -3333,7 +3367,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>286</v>
       </c>
@@ -3369,7 +3403,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>294</v>
       </c>
@@ -3405,7 +3439,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>300</v>
       </c>
@@ -3441,7 +3475,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="210" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="210" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>305</v>
       </c>
@@ -4045,7 +4079,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>409</v>
       </c>
@@ -4073,7 +4107,7 @@
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
     </row>
-    <row r="66" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>413</v>
       </c>
@@ -4109,7 +4143,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>420</v>
       </c>
@@ -4143,7 +4177,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>425</v>
       </c>
@@ -4178,8 +4212,11 @@
       <c r="N68" s="3" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+      <c r="O68" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="165" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>432</v>
       </c>
@@ -4217,7 +4254,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="180" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>437</v>
       </c>
